--- a/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-outcome-type-code-system.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-outcome-type-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T16:27:19+00:00</t>
+    <t>2024-02-09T16:53:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
